--- a/Documents/time schedule.xlsx
+++ b/Documents/time schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Time spend</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t xml:space="preserve">Research </t>
+  </si>
+  <si>
+    <t>Making Level 1 (unity boxes)</t>
   </si>
 </sst>
 </file>
@@ -510,7 +513,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,9 +565,15 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="11">
+        <v>43029</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>

--- a/Documents/time schedule.xlsx
+++ b/Documents/time schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Time spend</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Making Level 1 (unity boxes)</t>
+  </si>
+  <si>
+    <t>Player walk through level, pick player, spawn player, show id above head</t>
   </si>
 </sst>
 </file>
@@ -513,14 +516,14 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="3" max="3" width="85.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
@@ -576,9 +579,15 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="11">
+        <v>43030</v>
+      </c>
+      <c r="B7" s="12">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>

--- a/Documents/time schedule.xlsx
+++ b/Documents/time schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Time spend</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Info</t>
-  </si>
-  <si>
     <t>Time (hours)</t>
   </si>
   <si>
@@ -48,13 +45,37 @@
   </si>
   <si>
     <t>Player walk through level, pick player, spawn player, show id above head</t>
+  </si>
+  <si>
+    <t>Camera follow players + switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Player following and regrouping when at destination </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characters auto follow or staying </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Info: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this includes research, coding and testing</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +94,13 @@
       <b/>
       <u/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -516,7 +544,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,7 +581,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,7 +592,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -575,7 +603,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -586,23 +614,41 @@
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>43030</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="11">
+        <v>43030</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="11">
+        <v>43030</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>

--- a/Documents/time schedule.xlsx
+++ b/Documents/time schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Time spend</t>
   </si>
@@ -69,6 +69,15 @@
       </rPr>
       <t>this includes research, coding and testing</t>
     </r>
+  </si>
+  <si>
+    <t>Items: Weapon can shoot and you can switch between them (damage is different with each weapon)</t>
+  </si>
+  <si>
+    <t>Enemy who spawns at a location (and stays there). Can shoot on them and die when health is below zero</t>
+  </si>
+  <si>
+    <t>When mouse hovers above enemy the cursor change</t>
   </si>
 </sst>
 </file>
@@ -544,14 +553,14 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="85.85546875" customWidth="1"/>
+    <col min="3" max="3" width="99.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
@@ -651,19 +660,37 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="11">
+        <v>43031</v>
+      </c>
+      <c r="B11" s="12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="11">
+        <v>43031</v>
+      </c>
+      <c r="B12" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="11">
+        <v>43031</v>
+      </c>
+      <c r="B13" s="12">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>

--- a/Documents/time schedule.xlsx
+++ b/Documents/time schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Time spend</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>When mouse hovers above enemy the cursor change</t>
+  </si>
+  <si>
+    <t>Making HUD + updating HUD script (bullets + active weapon)</t>
+  </si>
+  <si>
+    <t>Pickups bullets</t>
   </si>
 </sst>
 </file>
@@ -693,14 +699,26 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="11">
+        <v>43032</v>
+      </c>
+      <c r="B14" s="12">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="11">
+        <v>43032</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>

--- a/Documents/time schedule.xlsx
+++ b/Documents/time schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Time spend</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>Pickups bullets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making Inventory </t>
+  </si>
+  <si>
+    <t>Updating Inventory with weapons</t>
+  </si>
+  <si>
+    <t>Recreating manager, spawning object in game manager not other class</t>
   </si>
 </sst>
 </file>
@@ -556,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,24 +730,62 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="11">
+        <v>43033</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="11">
+        <v>43033</v>
+      </c>
+      <c r="B17" s="12">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="A18" s="11">
+        <v>43033</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/time schedule.xlsx
+++ b/Documents/time schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Time spend</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Recreating manager, spawning object in game manager not other class</t>
+  </si>
+  <si>
+    <t>Updating inventory UI showing icon of object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picking up weapons(if you don’t have it already) and picking up health + showing in inventory. </t>
   </si>
 </sst>
 </file>
@@ -568,7 +574,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,14 +769,26 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="11">
+        <v>43034</v>
+      </c>
+      <c r="B19" s="12">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="11">
+        <v>43034</v>
+      </c>
+      <c r="B20" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>

--- a/Documents/time schedule.xlsx
+++ b/Documents/time schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Time spend</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t xml:space="preserve">Picking up weapons(if you don’t have it already) and picking up health + showing in inventory. </t>
+  </si>
+  <si>
+    <t>Enemy attack player when is under attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test playing and bug fixing </t>
+  </si>
+  <si>
+    <t>Player can die, changing some code because of this (selected player, weapons, regrouping, … )</t>
   </si>
 </sst>
 </file>
@@ -237,13 +246,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -257,6 +262,8 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,7 +581,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,225 +592,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="7">
         <v>43029</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>43029</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="7">
         <v>43029</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="8">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="7">
         <v>43030</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="8">
         <v>7.6388888888888895E-2</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="7">
         <v>43030</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="8">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="7">
         <v>43030</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="7">
         <v>43030</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="8">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="7">
         <v>43031</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="8">
         <v>0.1111111111111111</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="7">
         <v>43031</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="7">
         <v>43031</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="7">
         <v>43032</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="8">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="7">
         <v>43032</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="8">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="7">
         <v>43033</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="8">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="7">
         <v>43033</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="8">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="7">
         <v>43033</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="8">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="7">
         <v>43034</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="8">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="7">
         <v>43034</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="7">
+        <v>43035</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="7">
+        <v>43035</v>
+      </c>
+      <c r="B22" s="8">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="9">
+        <v>43035</v>
+      </c>
+      <c r="B23" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
